--- a/indicators/NO_BFLY_001_002/metadata.xlsx
+++ b/indicators/NO_BFLY_001_002/metadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anders.kolstad\Github\ecRxiv_butterflies\indicators\NO_BFLY_001_002\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9993CA4F-F3A8-4452-B963-4C90187C690B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAE4ACB4-8BFD-4267-AC84-459FCD0A5016}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-5295" windowWidth="38640" windowHeight="21240" xr2:uid="{5774BAF6-AFFD-43CB-8AE5-DFBA2C21B702}"/>
+    <workbookView xWindow="7845" yWindow="15" windowWidth="38700" windowHeight="15435" xr2:uid="{5774BAF6-AFFD-43CB-8AE5-DFBA2C21B702}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="1" r:id="rId1"/>
@@ -1172,7 +1172,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1357,7 +1357,7 @@
         <v>166</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>168</v>
